--- a/material/results.xlsx
+++ b/material/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz\Downloads\PubMed Suche\prototyp-einer-vektor-basierten-pubmed-suche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz\Downloads\bert-biomedical-ir\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2060A2D-DD8F-4892-9215-17593E87EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDF1023-EB22-4D31-AD28-2EE3ACA4F6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1AF74D9B-95A7-42F2-9D0E-E56AFA376FF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{1AF74D9B-95A7-42F2-9D0E-E56AFA376FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence-BERT" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="ColBERT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -620,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -637,7 +636,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -966,10 +970,10 @@
   <sheetPr>
     <tabColor rgb="FFFF33CC"/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,19 +986,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1002,16 +1006,16 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1019,16 +1023,16 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1036,16 +1040,16 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1053,18 +1057,25 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1202,7 +1213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1281,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1287,126 +1298,141 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -2438,83 +2464,83 @@
     <hyperlink ref="A22" r:id="rId5" xr:uid="{429172EA-B1E7-4912-B692-6089E8DE3557}"/>
     <hyperlink ref="A23" r:id="rId6" xr:uid="{63C7D923-6FC5-4234-A27C-E43526511144}"/>
     <hyperlink ref="A25" r:id="rId7" xr:uid="{7A8702F1-B035-43C1-BAD0-F7A3223E92F2}"/>
-    <hyperlink ref="A27" r:id="rId8" xr:uid="{8AB9F053-C71C-444E-9273-0E73CAC02EC1}"/>
-    <hyperlink ref="A28" r:id="rId9" xr:uid="{3DE62FB3-786C-4DEC-9A90-DA17074E6C48}"/>
-    <hyperlink ref="A29" r:id="rId10" xr:uid="{63FBE831-4664-4ABB-97D8-4E26BE0CBC31}"/>
-    <hyperlink ref="A30" r:id="rId11" xr:uid="{AEF7E1D1-135A-42D5-864B-C85F1496528D}"/>
-    <hyperlink ref="A32" r:id="rId12" xr:uid="{72AC829B-FDEE-4FE2-B93B-9B97A019EA75}"/>
-    <hyperlink ref="A33" r:id="rId13" xr:uid="{112018AF-59C7-4C8A-8CB3-22BAAC870BA1}"/>
-    <hyperlink ref="A34" r:id="rId14" xr:uid="{9CF39EC6-5ECA-4A7A-97E0-AF5882C9CA80}"/>
-    <hyperlink ref="A35" r:id="rId15" xr:uid="{02832533-0715-4AD3-B666-17A07B0DF783}"/>
-    <hyperlink ref="A37" r:id="rId16" xr:uid="{5B3491FB-39B9-4A82-9F49-B1A1ECE5A188}"/>
-    <hyperlink ref="A38" r:id="rId17" xr:uid="{607CBF2B-847C-4D8D-9BA3-DEDD95E7A84E}"/>
-    <hyperlink ref="A39" r:id="rId18" xr:uid="{283ED430-15DE-4654-A48C-024BCCF0DCD1}"/>
-    <hyperlink ref="A40" r:id="rId19" xr:uid="{0A03DD57-9F70-4934-9F12-3936573EE34F}"/>
-    <hyperlink ref="A42" r:id="rId20" xr:uid="{A4639FA4-2931-47F2-8CAC-D4DB480E27E9}"/>
-    <hyperlink ref="A43" r:id="rId21" xr:uid="{9360C848-C64B-4202-9189-6F60A0D1C3AC}"/>
-    <hyperlink ref="A44" r:id="rId22" xr:uid="{8850BBCE-5838-442C-B4BD-0CF4BD86D283}"/>
-    <hyperlink ref="A45" r:id="rId23" xr:uid="{0CB53C1F-5329-4579-B657-664F2806D330}"/>
-    <hyperlink ref="A47" r:id="rId24" xr:uid="{A07DAC26-CA42-436B-8001-38E2E946CBF9}"/>
-    <hyperlink ref="A48" r:id="rId25" xr:uid="{BE853B19-7AE5-46BF-885B-B17A092FB3B6}"/>
-    <hyperlink ref="A49" r:id="rId26" xr:uid="{1F8DC798-437B-41B8-83D4-1F8F2C48F395}"/>
-    <hyperlink ref="A50" r:id="rId27" xr:uid="{DFBF66DE-F710-4853-8962-50E57F7389C7}"/>
-    <hyperlink ref="A52" r:id="rId28" xr:uid="{9E5BEDDB-2A32-4F7F-B445-7A69032367B6}"/>
-    <hyperlink ref="A53" r:id="rId29" xr:uid="{CD37691C-02F7-491A-BAB6-5164DB91B12B}"/>
-    <hyperlink ref="A54" r:id="rId30" xr:uid="{07764968-CBCA-40C0-9F8E-4CDEAB98D717}"/>
-    <hyperlink ref="A55" r:id="rId31" xr:uid="{7ADC52E1-9CF2-4E13-AF61-AE2BAEC35CF1}"/>
-    <hyperlink ref="A57" r:id="rId32" xr:uid="{AE77795C-F85B-4149-B6D8-2E68E502F5E8}"/>
-    <hyperlink ref="A58" r:id="rId33" xr:uid="{661A6B66-3F53-4797-90B7-0BBC3D8F69B1}"/>
-    <hyperlink ref="A59" r:id="rId34" xr:uid="{3591D966-DA69-4188-9A66-BF93710CDF08}"/>
-    <hyperlink ref="A60" r:id="rId35" xr:uid="{9CD0B7B6-82E8-407B-81F7-FB16868AB299}"/>
-    <hyperlink ref="A62" r:id="rId36" xr:uid="{DDD714F4-3B8D-4E9F-9C5C-ED3163A53B31}"/>
-    <hyperlink ref="A63" r:id="rId37" xr:uid="{A607F6DD-AD0A-48CA-BE2E-84A19BBA2C1D}"/>
-    <hyperlink ref="A64" r:id="rId38" xr:uid="{F961E083-12BD-4FF8-8BB2-C34590748224}"/>
-    <hyperlink ref="A65" r:id="rId39" xr:uid="{B81370C4-B23B-4D2E-BB3C-5B9919C4CE48}"/>
-    <hyperlink ref="A67" r:id="rId40" xr:uid="{F66BFC65-ECF4-4A3F-82D4-84238B6B480E}"/>
-    <hyperlink ref="A68" r:id="rId41" xr:uid="{EB091A4E-EA35-4D80-BE97-4957566CC997}"/>
-    <hyperlink ref="A69" r:id="rId42" xr:uid="{55F46324-787D-4F63-A449-512DC5FD2D0B}"/>
-    <hyperlink ref="A70" r:id="rId43" xr:uid="{03B922D1-92E4-461D-9F75-C60F82827849}"/>
-    <hyperlink ref="A72" r:id="rId44" xr:uid="{BC5124AE-56B5-498D-A44C-1706E18AD7D0}"/>
-    <hyperlink ref="A73" r:id="rId45" xr:uid="{9AA97734-F265-47DF-890C-47C18209436A}"/>
-    <hyperlink ref="A74" r:id="rId46" xr:uid="{A85D5E0E-D2D3-4460-9168-F6C82B1C0E05}"/>
-    <hyperlink ref="A75" r:id="rId47" xr:uid="{18D7B032-8D7B-4D4B-828F-4AE15E7982D9}"/>
-    <hyperlink ref="A77" r:id="rId48" xr:uid="{6480EAD9-3F85-4E95-876F-2010DF906443}"/>
-    <hyperlink ref="A78" r:id="rId49" xr:uid="{9A8EE11D-540B-46C7-A2DF-AE8C53692AD3}"/>
-    <hyperlink ref="A79" r:id="rId50" xr:uid="{6BCCAB83-629E-4FE3-B890-8D81F212397F}"/>
-    <hyperlink ref="A80" r:id="rId51" xr:uid="{DAD780DB-1D24-4146-9C3D-E8916AE2BDBC}"/>
-    <hyperlink ref="A82" r:id="rId52" xr:uid="{81AA9F8B-70E2-4E31-ABE5-0C7AEB608348}"/>
-    <hyperlink ref="A83" r:id="rId53" xr:uid="{BB6C664C-7714-47E6-8DDB-E3064238F3F5}"/>
-    <hyperlink ref="A84" r:id="rId54" xr:uid="{7DD88CCC-338C-4868-8410-A12BA98DBA06}"/>
-    <hyperlink ref="A85" r:id="rId55" xr:uid="{650E98E5-E002-4E6C-98A7-756BB2AD7C45}"/>
-    <hyperlink ref="A87" r:id="rId56" xr:uid="{61AC39D7-BBF9-4C3C-9AD2-5F2CE9CECDA0}"/>
-    <hyperlink ref="A88" r:id="rId57" xr:uid="{DD43128F-7072-4079-BC2C-397878CD9C77}"/>
-    <hyperlink ref="A89" r:id="rId58" xr:uid="{59A2151D-AC3D-4541-AED5-7C33C6F0576D}"/>
-    <hyperlink ref="A90" r:id="rId59" xr:uid="{9D2D52D4-0518-4535-AB09-0536DBCC5C1C}"/>
-    <hyperlink ref="A92" r:id="rId60" xr:uid="{5C304DAF-A070-4802-A937-A2CD22AD00BA}"/>
-    <hyperlink ref="A93" r:id="rId61" xr:uid="{D07B2AFE-E680-43C6-9C7B-15C11AAD8DA1}"/>
-    <hyperlink ref="A94" r:id="rId62" xr:uid="{BA95D5E3-E807-4D5A-B90F-DF44FCD43594}"/>
-    <hyperlink ref="A95" r:id="rId63" xr:uid="{29F9298F-9C88-4659-BE4E-DC512FD2C38A}"/>
-    <hyperlink ref="A97" r:id="rId64" xr:uid="{3595E3A5-5D1E-4C14-B787-6A96B1B4D143}"/>
-    <hyperlink ref="A98" r:id="rId65" xr:uid="{FF8B1C12-DAEE-4D86-AECA-AF56D20D4216}"/>
-    <hyperlink ref="A99" r:id="rId66" xr:uid="{E4C6B79F-9617-4B6F-842C-C5FAAEEC26D8}"/>
-    <hyperlink ref="A100" r:id="rId67" xr:uid="{AB97DDCA-EA05-4151-B20B-D42205F490D5}"/>
-    <hyperlink ref="A102" r:id="rId68" xr:uid="{2189EF5D-206E-45CA-A0FA-AF3E39068556}"/>
-    <hyperlink ref="A103" r:id="rId69" xr:uid="{DD8520A9-B0E1-4AEA-A75C-49E4EC447A9E}"/>
-    <hyperlink ref="A104" r:id="rId70" xr:uid="{D4CC0161-7A6F-47CB-B9FB-8F4C9B2C5639}"/>
-    <hyperlink ref="A105" r:id="rId71" xr:uid="{E051CB27-8505-44D6-A9E2-F9DEDD42BDD3}"/>
-    <hyperlink ref="A3" r:id="rId72" display="all-mpnet-base-v2" xr:uid="{64E34092-CE46-4DBC-80E1-406D0E573A22}"/>
-    <hyperlink ref="A4" r:id="rId73" display="all-mpnet-base-v2" xr:uid="{A5DBE266-BB02-4804-982E-F87F029B2C80}"/>
-    <hyperlink ref="A5" r:id="rId74" display="all-mpnet-base-v2" xr:uid="{FB802982-61B9-43E8-A27E-2E055AFBCB2E}"/>
-    <hyperlink ref="A8" r:id="rId75" display="multi-qa-mpnet-base-dot-v1" xr:uid="{AFF95CD6-2AEE-4688-8D48-1C5763C90EE5}"/>
-    <hyperlink ref="A9" r:id="rId76" display="multi-qa-mpnet-base-dot-v1" xr:uid="{CCBDEB2F-1D90-49BA-8F70-BC1E6DA147E6}"/>
-    <hyperlink ref="A10" r:id="rId77" display="multi-qa-mpnet-base-dot-v1" xr:uid="{F235FEDF-2306-49A1-AD1B-4376979705E0}"/>
-    <hyperlink ref="A13" r:id="rId78" display="msmarco-distilbert-base-tas-b" xr:uid="{B0D83E56-C3D6-4952-A80F-F5FAAE478DF2}"/>
-    <hyperlink ref="A14" r:id="rId79" display="msmarco-distilbert-base-tas-b" xr:uid="{3E30A775-B955-45D7-9197-8FACCF5CD9FD}"/>
-    <hyperlink ref="A15" r:id="rId80" display="msmarco-distilbert-base-tas-b" xr:uid="{CF0791EB-99FC-475E-B042-0D2E13C767ED}"/>
-    <hyperlink ref="A18" r:id="rId81" display="msmarco-distilbert-base-v4" xr:uid="{35C1EB39-CFDE-4AA5-B207-0534F89383E6}"/>
-    <hyperlink ref="A19" r:id="rId82" display="msmarco-distilbert-base-v4" xr:uid="{9EF780C5-0790-424B-BB95-2A5DD053A4DB}"/>
-    <hyperlink ref="A20" r:id="rId83" display="msmarco-distilbert-base-v4" xr:uid="{B64ADC7D-43BF-48BA-AC48-3D3DEE35E10E}"/>
-    <hyperlink ref="A24" r:id="rId84" xr:uid="{8E98FB8B-F291-4679-B745-5551429162E3}"/>
+    <hyperlink ref="A28" r:id="rId8" xr:uid="{3DE62FB3-786C-4DEC-9A90-DA17074E6C48}"/>
+    <hyperlink ref="A29" r:id="rId9" xr:uid="{63FBE831-4664-4ABB-97D8-4E26BE0CBC31}"/>
+    <hyperlink ref="A30" r:id="rId10" xr:uid="{AEF7E1D1-135A-42D5-864B-C85F1496528D}"/>
+    <hyperlink ref="A32" r:id="rId11" xr:uid="{72AC829B-FDEE-4FE2-B93B-9B97A019EA75}"/>
+    <hyperlink ref="A33" r:id="rId12" xr:uid="{112018AF-59C7-4C8A-8CB3-22BAAC870BA1}"/>
+    <hyperlink ref="A34" r:id="rId13" xr:uid="{9CF39EC6-5ECA-4A7A-97E0-AF5882C9CA80}"/>
+    <hyperlink ref="A35" r:id="rId14" xr:uid="{02832533-0715-4AD3-B666-17A07B0DF783}"/>
+    <hyperlink ref="A37" r:id="rId15" xr:uid="{5B3491FB-39B9-4A82-9F49-B1A1ECE5A188}"/>
+    <hyperlink ref="A38" r:id="rId16" xr:uid="{607CBF2B-847C-4D8D-9BA3-DEDD95E7A84E}"/>
+    <hyperlink ref="A39" r:id="rId17" xr:uid="{283ED430-15DE-4654-A48C-024BCCF0DCD1}"/>
+    <hyperlink ref="A40" r:id="rId18" xr:uid="{0A03DD57-9F70-4934-9F12-3936573EE34F}"/>
+    <hyperlink ref="A42" r:id="rId19" xr:uid="{A4639FA4-2931-47F2-8CAC-D4DB480E27E9}"/>
+    <hyperlink ref="A43" r:id="rId20" xr:uid="{9360C848-C64B-4202-9189-6F60A0D1C3AC}"/>
+    <hyperlink ref="A44" r:id="rId21" xr:uid="{8850BBCE-5838-442C-B4BD-0CF4BD86D283}"/>
+    <hyperlink ref="A45" r:id="rId22" xr:uid="{0CB53C1F-5329-4579-B657-664F2806D330}"/>
+    <hyperlink ref="A47" r:id="rId23" xr:uid="{A07DAC26-CA42-436B-8001-38E2E946CBF9}"/>
+    <hyperlink ref="A48" r:id="rId24" xr:uid="{BE853B19-7AE5-46BF-885B-B17A092FB3B6}"/>
+    <hyperlink ref="A49" r:id="rId25" xr:uid="{1F8DC798-437B-41B8-83D4-1F8F2C48F395}"/>
+    <hyperlink ref="A50" r:id="rId26" xr:uid="{DFBF66DE-F710-4853-8962-50E57F7389C7}"/>
+    <hyperlink ref="A52" r:id="rId27" xr:uid="{9E5BEDDB-2A32-4F7F-B445-7A69032367B6}"/>
+    <hyperlink ref="A53" r:id="rId28" xr:uid="{CD37691C-02F7-491A-BAB6-5164DB91B12B}"/>
+    <hyperlink ref="A54" r:id="rId29" xr:uid="{07764968-CBCA-40C0-9F8E-4CDEAB98D717}"/>
+    <hyperlink ref="A55" r:id="rId30" xr:uid="{7ADC52E1-9CF2-4E13-AF61-AE2BAEC35CF1}"/>
+    <hyperlink ref="A57" r:id="rId31" xr:uid="{AE77795C-F85B-4149-B6D8-2E68E502F5E8}"/>
+    <hyperlink ref="A58" r:id="rId32" xr:uid="{661A6B66-3F53-4797-90B7-0BBC3D8F69B1}"/>
+    <hyperlink ref="A59" r:id="rId33" xr:uid="{3591D966-DA69-4188-9A66-BF93710CDF08}"/>
+    <hyperlink ref="A60" r:id="rId34" xr:uid="{9CD0B7B6-82E8-407B-81F7-FB16868AB299}"/>
+    <hyperlink ref="A62" r:id="rId35" xr:uid="{DDD714F4-3B8D-4E9F-9C5C-ED3163A53B31}"/>
+    <hyperlink ref="A63" r:id="rId36" xr:uid="{A607F6DD-AD0A-48CA-BE2E-84A19BBA2C1D}"/>
+    <hyperlink ref="A64" r:id="rId37" xr:uid="{F961E083-12BD-4FF8-8BB2-C34590748224}"/>
+    <hyperlink ref="A65" r:id="rId38" xr:uid="{B81370C4-B23B-4D2E-BB3C-5B9919C4CE48}"/>
+    <hyperlink ref="A67" r:id="rId39" xr:uid="{F66BFC65-ECF4-4A3F-82D4-84238B6B480E}"/>
+    <hyperlink ref="A68" r:id="rId40" xr:uid="{EB091A4E-EA35-4D80-BE97-4957566CC997}"/>
+    <hyperlink ref="A69" r:id="rId41" xr:uid="{55F46324-787D-4F63-A449-512DC5FD2D0B}"/>
+    <hyperlink ref="A70" r:id="rId42" xr:uid="{03B922D1-92E4-461D-9F75-C60F82827849}"/>
+    <hyperlink ref="A72" r:id="rId43" xr:uid="{BC5124AE-56B5-498D-A44C-1706E18AD7D0}"/>
+    <hyperlink ref="A73" r:id="rId44" xr:uid="{9AA97734-F265-47DF-890C-47C18209436A}"/>
+    <hyperlink ref="A74" r:id="rId45" xr:uid="{A85D5E0E-D2D3-4460-9168-F6C82B1C0E05}"/>
+    <hyperlink ref="A75" r:id="rId46" xr:uid="{18D7B032-8D7B-4D4B-828F-4AE15E7982D9}"/>
+    <hyperlink ref="A77" r:id="rId47" xr:uid="{6480EAD9-3F85-4E95-876F-2010DF906443}"/>
+    <hyperlink ref="A78" r:id="rId48" xr:uid="{9A8EE11D-540B-46C7-A2DF-AE8C53692AD3}"/>
+    <hyperlink ref="A79" r:id="rId49" xr:uid="{6BCCAB83-629E-4FE3-B890-8D81F212397F}"/>
+    <hyperlink ref="A80" r:id="rId50" xr:uid="{DAD780DB-1D24-4146-9C3D-E8916AE2BDBC}"/>
+    <hyperlink ref="A82" r:id="rId51" xr:uid="{81AA9F8B-70E2-4E31-ABE5-0C7AEB608348}"/>
+    <hyperlink ref="A83" r:id="rId52" xr:uid="{BB6C664C-7714-47E6-8DDB-E3064238F3F5}"/>
+    <hyperlink ref="A84" r:id="rId53" xr:uid="{7DD88CCC-338C-4868-8410-A12BA98DBA06}"/>
+    <hyperlink ref="A85" r:id="rId54" xr:uid="{650E98E5-E002-4E6C-98A7-756BB2AD7C45}"/>
+    <hyperlink ref="A87" r:id="rId55" xr:uid="{61AC39D7-BBF9-4C3C-9AD2-5F2CE9CECDA0}"/>
+    <hyperlink ref="A88" r:id="rId56" xr:uid="{DD43128F-7072-4079-BC2C-397878CD9C77}"/>
+    <hyperlink ref="A89" r:id="rId57" xr:uid="{59A2151D-AC3D-4541-AED5-7C33C6F0576D}"/>
+    <hyperlink ref="A90" r:id="rId58" xr:uid="{9D2D52D4-0518-4535-AB09-0536DBCC5C1C}"/>
+    <hyperlink ref="A92" r:id="rId59" xr:uid="{5C304DAF-A070-4802-A937-A2CD22AD00BA}"/>
+    <hyperlink ref="A93" r:id="rId60" xr:uid="{D07B2AFE-E680-43C6-9C7B-15C11AAD8DA1}"/>
+    <hyperlink ref="A94" r:id="rId61" xr:uid="{BA95D5E3-E807-4D5A-B90F-DF44FCD43594}"/>
+    <hyperlink ref="A95" r:id="rId62" xr:uid="{29F9298F-9C88-4659-BE4E-DC512FD2C38A}"/>
+    <hyperlink ref="A97" r:id="rId63" xr:uid="{3595E3A5-5D1E-4C14-B787-6A96B1B4D143}"/>
+    <hyperlink ref="A98" r:id="rId64" xr:uid="{FF8B1C12-DAEE-4D86-AECA-AF56D20D4216}"/>
+    <hyperlink ref="A99" r:id="rId65" xr:uid="{E4C6B79F-9617-4B6F-842C-C5FAAEEC26D8}"/>
+    <hyperlink ref="A100" r:id="rId66" xr:uid="{AB97DDCA-EA05-4151-B20B-D42205F490D5}"/>
+    <hyperlink ref="A102" r:id="rId67" xr:uid="{2189EF5D-206E-45CA-A0FA-AF3E39068556}"/>
+    <hyperlink ref="A103" r:id="rId68" xr:uid="{DD8520A9-B0E1-4AEA-A75C-49E4EC447A9E}"/>
+    <hyperlink ref="A104" r:id="rId69" xr:uid="{D4CC0161-7A6F-47CB-B9FB-8F4C9B2C5639}"/>
+    <hyperlink ref="A105" r:id="rId70" xr:uid="{E051CB27-8505-44D6-A9E2-F9DEDD42BDD3}"/>
+    <hyperlink ref="A3" r:id="rId71" display="all-mpnet-base-v2" xr:uid="{64E34092-CE46-4DBC-80E1-406D0E573A22}"/>
+    <hyperlink ref="A4" r:id="rId72" display="all-mpnet-base-v2" xr:uid="{A5DBE266-BB02-4804-982E-F87F029B2C80}"/>
+    <hyperlink ref="A5" r:id="rId73" display="all-mpnet-base-v2" xr:uid="{FB802982-61B9-43E8-A27E-2E055AFBCB2E}"/>
+    <hyperlink ref="A8" r:id="rId74" display="multi-qa-mpnet-base-dot-v1" xr:uid="{AFF95CD6-2AEE-4688-8D48-1C5763C90EE5}"/>
+    <hyperlink ref="A9" r:id="rId75" display="multi-qa-mpnet-base-dot-v1" xr:uid="{CCBDEB2F-1D90-49BA-8F70-BC1E6DA147E6}"/>
+    <hyperlink ref="A10" r:id="rId76" display="multi-qa-mpnet-base-dot-v1" xr:uid="{F235FEDF-2306-49A1-AD1B-4376979705E0}"/>
+    <hyperlink ref="A13" r:id="rId77" display="msmarco-distilbert-base-tas-b" xr:uid="{B0D83E56-C3D6-4952-A80F-F5FAAE478DF2}"/>
+    <hyperlink ref="A14" r:id="rId78" display="msmarco-distilbert-base-tas-b" xr:uid="{3E30A775-B955-45D7-9197-8FACCF5CD9FD}"/>
+    <hyperlink ref="A15" r:id="rId79" display="msmarco-distilbert-base-tas-b" xr:uid="{CF0791EB-99FC-475E-B042-0D2E13C767ED}"/>
+    <hyperlink ref="A18" r:id="rId80" display="msmarco-distilbert-base-v4" xr:uid="{35C1EB39-CFDE-4AA5-B207-0534F89383E6}"/>
+    <hyperlink ref="A19" r:id="rId81" display="msmarco-distilbert-base-v4" xr:uid="{9EF780C5-0790-424B-BB95-2A5DD053A4DB}"/>
+    <hyperlink ref="A20" r:id="rId82" display="msmarco-distilbert-base-v4" xr:uid="{B64ADC7D-43BF-48BA-AC48-3D3DEE35E10E}"/>
+    <hyperlink ref="A24" r:id="rId83" xr:uid="{8E98FB8B-F291-4679-B745-5551429162E3}"/>
+    <hyperlink ref="A27" r:id="rId84" xr:uid="{594C858C-2384-4272-8F93-E5DD1A39A7B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
@@ -2526,10 +2552,10 @@
   <sheetPr>
     <tabColor rgb="FF009999"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2540,66 +2566,74 @@
     <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -2613,10 +2647,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -2630,7 +2664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -2640,14 +2674,14 @@
       <c r="C9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2661,7 +2695,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -2675,11 +2709,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
@@ -2693,7 +2727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -2707,7 +2741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2751,7 +2785,7 @@
       <c r="C20" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2765,7 +2799,7 @@
       <c r="C21" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2811,7 +2845,7 @@
       <c r="C26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="9" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2944,16 +2978,16 @@
     <hyperlink ref="A26" r:id="rId12" xr:uid="{073338B5-52E1-49FC-9BF6-BE178F69F88A}"/>
     <hyperlink ref="A24" r:id="rId13" xr:uid="{EA5BF114-E864-4954-8F97-C9E8EEE50306}"/>
     <hyperlink ref="A23" r:id="rId14" xr:uid="{16D8E085-B876-492C-925D-77845C808D5E}"/>
-    <hyperlink ref="A20" r:id="rId15" xr:uid="{B529AA70-9D01-4B26-8068-AB13DF342FC2}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{D8EFBA2C-2524-4C79-9D7B-0251BD823170}"/>
-    <hyperlink ref="A12" r:id="rId17" xr:uid="{451B3DDE-2680-4913-8EDB-9E8960301882}"/>
-    <hyperlink ref="A11" r:id="rId18" xr:uid="{8B8DAB6C-5538-4BEE-A9F0-574C023B9D9C}"/>
-    <hyperlink ref="A9" r:id="rId19" xr:uid="{AD962272-EAC2-462B-AADA-AF8B7D6AD3E3}"/>
-    <hyperlink ref="A8" r:id="rId20" xr:uid="{0DAFDB78-C7B8-45D6-B017-6C4691634E3E}"/>
-    <hyperlink ref="A6" r:id="rId21" xr:uid="{E244D05B-C88B-4B56-987A-64AF9FAC13F5}"/>
-    <hyperlink ref="A5" r:id="rId22" xr:uid="{92F35244-3E81-43CB-ADBC-4E795B702A99}"/>
-    <hyperlink ref="A3" r:id="rId23" xr:uid="{AC69A267-47A4-4B7C-A7D6-E8164C709782}"/>
-    <hyperlink ref="A2" r:id="rId24" xr:uid="{90B45B3B-2BBE-468A-B953-89EE8071AD23}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{D8EFBA2C-2524-4C79-9D7B-0251BD823170}"/>
+    <hyperlink ref="A12" r:id="rId16" xr:uid="{451B3DDE-2680-4913-8EDB-9E8960301882}"/>
+    <hyperlink ref="A11" r:id="rId17" xr:uid="{8B8DAB6C-5538-4BEE-A9F0-574C023B9D9C}"/>
+    <hyperlink ref="A9" r:id="rId18" xr:uid="{AD962272-EAC2-462B-AADA-AF8B7D6AD3E3}"/>
+    <hyperlink ref="A8" r:id="rId19" xr:uid="{0DAFDB78-C7B8-45D6-B017-6C4691634E3E}"/>
+    <hyperlink ref="A6" r:id="rId20" xr:uid="{E244D05B-C88B-4B56-987A-64AF9FAC13F5}"/>
+    <hyperlink ref="A5" r:id="rId21" xr:uid="{92F35244-3E81-43CB-ADBC-4E795B702A99}"/>
+    <hyperlink ref="A3" r:id="rId22" xr:uid="{AC69A267-47A4-4B7C-A7D6-E8164C709782}"/>
+    <hyperlink ref="A2" r:id="rId23" xr:uid="{90B45B3B-2BBE-468A-B953-89EE8071AD23}"/>
+    <hyperlink ref="A20" r:id="rId24" xr:uid="{C4A9E1A1-BAE1-4AB2-8F7A-780230F1E76C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
@@ -2967,7 +3001,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
